--- a/biology/Botanique/Walter_Reginald_Brook_Oliver/Walter_Reginald_Brook_Oliver.xlsx
+++ b/biology/Botanique/Walter_Reginald_Brook_Oliver/Walter_Reginald_Brook_Oliver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Reginald Brook Oliver est un botaniste et un ornithologue australo- néo-zélandais, né le 7 septembre 1883 à Launceston et mort le 16 mai 1957 à Wellington.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille s’installe en Nouvelle-Zélande en 1896. Il travaille dans les douanes de 1900 à 1914. Vers 1905, il commence à s’intéresser à la botanique et participe, en 1907-1908, à une expédition dans les îles Kermadec. Il visite les îles Chatham (1909), l’île Stewart (1910) et l’île Lord Howe.
 Durant la Première Guerre mondiale, Oliver sert en France (1917-1918) avant de réintégrer les douanes. En 1920, il est embauché comme assistant au Muséum du Dominion à Wellington.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1930 : New Zealand Birds (réédité en 1955).
 1949 : The Moas of New Zealand and Australia.</t>
@@ -577,7 +593,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Bright Sparcs (biographie)</t>
         </is>
